--- a/JS Study.xlsx
+++ b/JS Study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wtv16-my.sharepoint.com/personal/amie_wtv16_onmicrosoft_com/Documents/Desktop/JS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iconf\OneDrive\Documents\VS Code\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBA2DE5-EB89-4ACE-85B7-30CD43556E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB8B24F-A19A-464E-BBD6-812ED64DA585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2730" yWindow="555" windowWidth="21270" windowHeight="14475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1065" windowWidth="16890" windowHeight="15135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1962,7 +1962,7 @@
   <dimension ref="A2:A77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
